--- a/AutoDeskFramework/testData/TestData.xlsx
+++ b/AutoDeskFramework/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Org" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O13"/>
+  <oleSize ref="A1:I13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -2603,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
